--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_133.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_133.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,358 +488,370 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(25.26, 36.1)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(45.76, 55.48)]</t>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(40.46, 43.62)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[('0:00:03', '0:00:07.380000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:09.600000', '0:00:25.040000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.7, 21.42)]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(2.36, 24.96)]</t>
+          <t>[('0:00:25.480000', '0:00:32.580000'), ('0:01:14.100000', '0:01:20.040000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:30.600000', '0:01:41.180000'), ('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:06.840000', '0:00:16.080000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:00:03.100000', '0:00:07.720000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.740000', '0:00:27.080000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:18.460000', '0:01:27.700000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.26, 21.14)]</t>
+          <t>[('0:00:23.260000', '0:00:26.800000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:58.320000', '0:00:59.680000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[('0:01:23.760000', '0:01:32.660000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:25.160000', '0:01:34.900000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -843,360 +860,318 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4857142857142857</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:01:40.569342', '0:01:53.665396')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:56.720000', '0:00:59.180000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[('0:01:14.700000', '0:01:34.120000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(59.9, 69.84)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
-        </is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.44, 24.72)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(6.74, 13.46)]</t>
+          <t>[('0:00:16.380000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:16.320000', '0:01:01.580000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.6, 39.0)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.54, 42.72)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
